--- a/biology/Botanique/Synuraceae/Synuraceae.xlsx
+++ b/biology/Botanique/Synuraceae/Synuraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Synuraceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Chrysophyceae et de l'ordre des Synurales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Synuraceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Chrysophyceae et de l'ordre des Synurales.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient de l'ancien genre type Synura[note 1], dérivé du grec συν / syn, ensemble, et ουρα / oura, queue, en référence aux groupes que forme cet organisme qui se présence en « colonies sphériques ou ovoïdes nageant librement avec des cellules piriformes (en forme de poire) faiblement associées unies par leur queue au centre de la colonie »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient de l'ancien genre type Synura[note 1], dérivé du grec συν / syn, ensemble, et ουρα / oura, queue, en référence aux groupes que forme cet organisme qui se présence en « colonies sphériques ou ovoïdes nageant librement avec des cellules piriformes (en forme de poire) faiblement associées unies par leur queue au centre de la colonie ».
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,7 +584,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Synuraceae  sont actuellement (2022) inclus dans les Mallomonadaceae avec ses genres Chrysodidymus, Cladospongia, Jaoniella et Synura.
 </t>
@@ -599,9 +617,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (2 février 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (2 février 2022) :
 Chrysodidymus Prowse
 Cladospongia M.O.P.Iyengar &amp; K.R.Ramanathan
 Jaoniella Skvortsov</t>
